--- a/Documentação/Product Backlog/Product Backlog v3.xlsx
+++ b/Documentação/Product Backlog/Product Backlog v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://valemobibr-my.sharepoint.com/personal/vinicius_cano_valemobi_com_br/Documents/Documentos/ads3/grupoPi3Semestre/Documentação/Product Backlog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/bruna_martins_b_melo_accenture_com/Documents/Desktop/SMART TOOLS/grupoPi3Semestre/Documentação/Product Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E155A4F0-4B73-4F75-8934-092C8E9A3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{E155A4F0-4B73-4F75-8934-092C8E9A3DB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6212808-DCB1-4579-AEC1-E78CA3792138}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Alexander Barreira</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{CDAF273E-A20B-4D5C-B0D1-B3564A967A64}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{CDAF273E-A20B-4D5C-B0D1-B3564A967A64}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{EE39FC19-3292-4006-90AF-BA8C8E76E8E0}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{EE39FC19-3292-4006-90AF-BA8C8E76E8E0}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>João</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Estado</t>
-  </si>
-  <si>
-    <t>Product BackLog Classified (PBC)</t>
   </si>
   <si>
     <t>BPMN</t>
@@ -334,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -435,12 +432,6 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <name val="Exo"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Exo"/>
       <family val="3"/>
@@ -511,49 +502,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,7 +664,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,33 +683,33 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -768,107 +722,98 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="21" builtinId="8"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
@@ -1171,126 +1116,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1109382</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>750793</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3429000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1053352</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CaixaDeTexto 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C237F12-9C79-4455-B9B4-0B3C619348CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076264" y="997322"/>
-          <a:ext cx="2319618" cy="302559"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Backlog Classificado Smart</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t> Tools</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219916</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1589791</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>862854</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061FCF8D-3797-466E-B39B-DF9CAB50BDF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="885265" y="466445"/>
-          <a:ext cx="1825114" cy="642938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1615,490 +1440,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="23.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="14" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="14"/>
-    <col min="11" max="11" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="12.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7265625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="78.81640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="0.7265625" style="16" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="14" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" style="14"/>
+    <col min="10" max="10" width="13.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="2:8" s="22" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B3" s="32" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:7" s="22" customFormat="1" ht="25" customHeight="1" thickBot="1">
+      <c r="A2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="B2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B4" s="35" t="s">
+    <row r="3" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="B3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A4" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B5" s="38" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B6" s="36" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B7" s="36" t="s">
+      <c r="C6" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="C7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B8" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="B8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" s="25" customFormat="1" ht="44" thickBot="1">
+      <c r="A10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" s="25" customFormat="1" ht="44" thickBot="1">
+      <c r="A12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B9" s="36" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B10" s="36" t="s">
+      <c r="B15" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" s="25" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="A16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="2:8" s="25" customFormat="1" ht="45.75" thickBot="1">
-      <c r="B11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="2:8" s="25" customFormat="1" ht="45.75" thickBot="1">
-      <c r="B13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="34" t="s">
+      <c r="B16" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="26"/>
+      <c r="C16" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="2:8" s="25" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="2:8" s="25" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="2:8" s="25" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="2:8" ht="23.1" customHeight="1">
-      <c r="B20" s="25"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="2:8" ht="23.1" customHeight="1">
-      <c r="B21" s="25"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="2:8" ht="23.1" customHeight="1">
-      <c r="B22" s="25"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="2:8" ht="23.1" customHeight="1">
-      <c r="B23" s="25"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="2:8" ht="23.1" customHeight="1">
-      <c r="B24" s="25"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="2:8" ht="23.1" customHeight="1">
-      <c r="B25" s="25"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="2:8" ht="23.1" customHeight="1">
-      <c r="B26" s="25"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="2:8" ht="23.1" customHeight="1">
-      <c r="B27" s="25"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="2:8" ht="23.1" customHeight="1">
-      <c r="C28" s="27"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="25"/>
+    </row>
+    <row r="17" spans="1:7" s="25" customFormat="1" ht="23.15" customHeight="1">
+      <c r="B17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" s="25" customFormat="1" ht="23.15" customHeight="1">
+      <c r="B18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" ht="23.15" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" ht="23.15" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" ht="23.15" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" ht="23.15" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" ht="23.15" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="23.15" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="23.15" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="23.15" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" ht="23.15" customHeight="1">
+      <c r="B27" s="27"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
-  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="E4:E5 D8 B4:C8 D11 B9:D9 B11:C12 C13 B13:B17">
+  <conditionalFormatting sqref="D3:D4 C7 A3:B7 C10 A8:C8 A10:B11 B12 A12:A16">
     <cfRule type="expression" dxfId="25" priority="80">
-      <formula>$B4="Done!"</formula>
+      <formula>$A3="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="81">
-      <formula>$B4="Ongoing"</formula>
+      <formula>$A3="Ongoing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="23" priority="82">
-      <formula>$B4="Blocked"</formula>
+      <formula>$A3="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="83">
-      <formula>$B4="Dropped"</formula>
+      <formula>$A3="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
+  <conditionalFormatting sqref="C11:C12">
     <cfRule type="expression" dxfId="21" priority="47">
-      <formula>$B$3="Plannedd"</formula>
+      <formula>$A$2="Plannedd"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="52">
-      <formula>$B12="Done!"</formula>
+      <formula>$A11="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="53">
-      <formula>$B12="Ongoing"</formula>
+      <formula>$A11="Ongoing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="54">
-      <formula>$B12="Blocked"</formula>
+      <formula>$A11="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="55">
-      <formula>$B12="Dropped"</formula>
+      <formula>$A11="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D7">
+  <conditionalFormatting sqref="C3:C6">
     <cfRule type="expression" dxfId="16" priority="43">
-      <formula>$B4="Done!"</formula>
+      <formula>$A3="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="44">
-      <formula>$B4="Ongoing"</formula>
+      <formula>$A3="Ongoing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="45">
-      <formula>$B4="Blocked"</formula>
+      <formula>$A3="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="46">
-      <formula>$B4="Dropped"</formula>
+      <formula>$A3="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C17">
+  <conditionalFormatting sqref="B13:B16">
     <cfRule type="expression" dxfId="12" priority="10">
-      <formula>$B13="Done!"</formula>
+      <formula>$A12="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$B13="Ongoing"</formula>
+      <formula>$A12="Ongoing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$B13="Blocked"</formula>
+      <formula>$A12="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$B13="Dropped"</formula>
+      <formula>$A12="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:D10">
+  <conditionalFormatting sqref="A9:C9">
     <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$B10="Done!"</formula>
+      <formula>$A9="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="2">
-      <formula>$B10="Ongoing"</formula>
+      <formula>$A9="Ongoing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="3">
-      <formula>$B10="Blocked"</formula>
+      <formula>$A9="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="4">
-      <formula>$B10="Dropped"</formula>
+      <formula>$A9="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D17">
+  <conditionalFormatting sqref="C13:C16">
     <cfRule type="expression" dxfId="4" priority="105">
-      <formula>$B$3="Plannedd"</formula>
+      <formula>$A$2="Plannedd"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="106">
-      <formula>$B13="Done!"</formula>
+      <formula>$A12="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="107">
-      <formula>$B13="Ongoing"</formula>
+      <formula>$A12="Ongoing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="108">
-      <formula>$B13="Blocked"</formula>
+      <formula>$A12="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="109">
-      <formula>$B13="Dropped"</formula>
+      <formula>$A12="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C3" location="Dados!A1" display="Artefato de Referência (XX#R)" xr:uid="{D05B6432-AA2C-4045-919C-377B36218316}"/>
+    <hyperlink ref="B2" location="Dados!A1" display="Artefato de Referência (XX#R)" xr:uid="{D05B6432-AA2C-4045-919C-377B36218316}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -2106,13 +1915,13 @@
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B17</xm:sqref>
+          <xm:sqref>A3:A16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Dados!$A$14:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E17</xm:sqref>
+          <xm:sqref>D3:D16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2128,16 +1937,16 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="52.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.81640625" style="2"/>
     <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="2"/>
+    <col min="8" max="8" width="10.81640625" style="2"/>
     <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="2"/>
+    <col min="10" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
@@ -2233,101 +2042,101 @@
     </row>
     <row r="16" spans="1:3" ht="68.25" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="23.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="23.5">
       <c r="A17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.5">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="23.25">
-      <c r="A18" s="11" t="s">
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="23.5">
+      <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="11" t="s">
+    <row r="20" spans="1:7" ht="23.5">
+      <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="23.25">
-      <c r="A20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="G20" s="2">
         <v>33263445898</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="23.25">
+    <row r="21" spans="1:7" ht="23.5">
       <c r="A21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="23.5">
+      <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="23.25">
-      <c r="A22" s="11" t="s">
+    <row r="23" spans="1:7" ht="23.5">
+      <c r="A23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="23.25">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="1:7" ht="23.5">
+      <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="23.25">
-      <c r="A24" s="11" t="s">
+    <row r="25" spans="1:7" ht="23.5">
+      <c r="A25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="23.25">
-      <c r="A25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="1:7" ht="23.5">
+      <c r="A26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="23.25">
-      <c r="A26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="23.25">
+    <row r="27" spans="1:7" ht="23.5">
       <c r="A27" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Product Backlog/Product Backlog v3.xlsx
+++ b/Documentação/Product Backlog/Product Backlog v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://valemobibr-my.sharepoint.com/personal/vinicius_cano_valemobi_com_br/Documents/Documentos/ads3/grupoPi3Semestre/Documentação/Product Backlog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://valemobibr-my.sharepoint.com/personal/vinicius_cano_valemobi_com_br/Documents/Área de Trabalho/SmartTools/grupoPi3Semestre/Documentação/Product Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E155A4F0-4B73-4F75-8934-092C8E9A3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E155A4F0-4B73-4F75-8934-092C8E9A3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99E40E21-5D02-4522-913D-B582DF03425E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -1617,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -1890,7 +1890,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="2:8" s="25" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="17" spans="2:8" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="B17" s="36" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2096,7 @@
     <hyperlink ref="C3" location="Dados!A1" display="Artefato de Referência (XX#R)" xr:uid="{D05B6432-AA2C-4045-919C-377B36218316}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="7" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <extLst>
